--- a/public/migracao/funcionarios.xlsx
+++ b/public/migracao/funcionarios.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="Funcionários"/>
   </sheets>
   <definedNames>
-    <definedName name="Funcionários">'Funcionários'!$A$1:$BQ$46</definedName>
+    <definedName name="Funcionários">'Funcionários'!$A$1:$BQ$52</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BQ46"/>
+  <dimension ref="A1:BQ52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -4354,6 +4354,492 @@
         <v>0</v>
       </c>
     </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="0">
+        <v>49</v>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>LUIZ FERNANDO DE OLIVEITA CAETANO</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>FERNANDINHO</t>
+        </is>
+      </c>
+      <c r="AH47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ47" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="AU47" s="0">
+        <v>220</v>
+      </c>
+      <c r="AV47" s="0">
+        <v>220</v>
+      </c>
+      <c r="AW47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ47" s="0">
+        <v>0</v>
+      </c>
+      <c r="BA47" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB47" s="0">
+        <v>0</v>
+      </c>
+      <c r="BC47" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD47" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE47" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI47" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ47" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK47" s="0">
+        <v>0</v>
+      </c>
+      <c r="BL47" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN47" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP47" s="0">
+        <v>0</v>
+      </c>
+      <c r="BQ47" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="0">
+        <v>50</v>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>JANILSON DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>GEVÃO</t>
+        </is>
+      </c>
+      <c r="AH48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="AU48" s="0">
+        <v>220</v>
+      </c>
+      <c r="AV48" s="0">
+        <v>220</v>
+      </c>
+      <c r="AW48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ48" s="0">
+        <v>0</v>
+      </c>
+      <c r="BA48" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB48" s="0">
+        <v>0</v>
+      </c>
+      <c r="BC48" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD48" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE48" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH48" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI48" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ48" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK48" s="0">
+        <v>0</v>
+      </c>
+      <c r="BL48" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN48" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP48" s="0">
+        <v>0</v>
+      </c>
+      <c r="BQ48" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="0">
+        <v>51</v>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>GEOVAN DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>GEOVAN</t>
+        </is>
+      </c>
+      <c r="AH49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ49" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="AU49" s="0">
+        <v>220</v>
+      </c>
+      <c r="AV49" s="0">
+        <v>220</v>
+      </c>
+      <c r="AW49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ49" s="0">
+        <v>0</v>
+      </c>
+      <c r="BA49" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB49" s="0">
+        <v>0</v>
+      </c>
+      <c r="BC49" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD49" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE49" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI49" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ49" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK49" s="0">
+        <v>0</v>
+      </c>
+      <c r="BL49" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN49" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP49" s="0">
+        <v>0</v>
+      </c>
+      <c r="BQ49" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="0">
+        <v>52</v>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>ERCI CARLOS PEREIRA</t>
+        </is>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>ERCI</t>
+        </is>
+      </c>
+      <c r="AH50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ50" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="AU50" s="0">
+        <v>220</v>
+      </c>
+      <c r="AV50" s="0">
+        <v>220</v>
+      </c>
+      <c r="AW50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ50" s="0">
+        <v>0</v>
+      </c>
+      <c r="BA50" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB50" s="0">
+        <v>0</v>
+      </c>
+      <c r="BC50" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD50" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE50" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH50" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI50" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ50" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK50" s="0">
+        <v>0</v>
+      </c>
+      <c r="BL50" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN50" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP50" s="0">
+        <v>0</v>
+      </c>
+      <c r="BQ50" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="0">
+        <v>53</v>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>EDUARDO DE ALMEIDA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>EDU</t>
+        </is>
+      </c>
+      <c r="AH51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ51" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="AU51" s="0">
+        <v>220</v>
+      </c>
+      <c r="AV51" s="0">
+        <v>220</v>
+      </c>
+      <c r="AW51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ51" s="0">
+        <v>0</v>
+      </c>
+      <c r="BA51" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB51" s="0">
+        <v>0</v>
+      </c>
+      <c r="BC51" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD51" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE51" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH51" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI51" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ51" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK51" s="0">
+        <v>0</v>
+      </c>
+      <c r="BL51" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN51" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP51" s="0">
+        <v>0</v>
+      </c>
+      <c r="BQ51" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="0">
+        <v>54</v>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>ANA CAROLINA DE ALBUQUERQUE PRADO</t>
+        </is>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>CAROL</t>
+        </is>
+      </c>
+      <c r="AH52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="AU52" s="0">
+        <v>220</v>
+      </c>
+      <c r="AV52" s="0">
+        <v>220</v>
+      </c>
+      <c r="AW52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ52" s="0">
+        <v>0</v>
+      </c>
+      <c r="BA52" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB52" s="0">
+        <v>0</v>
+      </c>
+      <c r="BC52" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD52" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE52" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH52" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI52" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ52" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK52" s="0">
+        <v>0</v>
+      </c>
+      <c r="BL52" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN52" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP52" s="0">
+        <v>0</v>
+      </c>
+      <c r="BQ52" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
